--- a/_downloads/f5cac977ce6872d68fcaf5cd7a8258b4/congestion_indices.xlsx
+++ b/_downloads/f5cac977ce6872d68fcaf5cd7a8258b4/congestion_indices.xlsx
@@ -1,34 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yiliangli/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhongjun\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF9DEA4-391C-E94D-9FDD-C19534253F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3E155E-9D6C-4AB5-88C6-2BD4BCE28540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47820" yWindow="7200" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>date</t>
   </si>
   <si>
     <t>ACT</t>
-  </si>
-  <si>
-    <t>AACT</t>
   </si>
   <si>
     <t>ACR</t>
@@ -38,10 +40,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,7 +92,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -416,15 +424,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,11 +445,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>42736</v>
       </c>
@@ -446,13 +454,10 @@
         <v>6.9821139181318248</v>
       </c>
       <c r="C2" s="2">
-        <v>19.452775767039402</v>
-      </c>
-      <c r="D2" s="2">
         <v>31.837631331576638</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>42767</v>
       </c>
@@ -460,13 +465,10 @@
         <v>5.4137889421406218</v>
       </c>
       <c r="C3" s="2">
-        <v>16.931647853405416</v>
-      </c>
-      <c r="D3" s="2">
         <v>28.945512810879723</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>42795</v>
       </c>
@@ -474,13 +476,10 @@
         <v>5.5999738442135687</v>
       </c>
       <c r="C4" s="2">
-        <v>16.887665883914728</v>
-      </c>
-      <c r="D4" s="2">
         <v>29.701869378523075</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>42826</v>
       </c>
@@ -488,13 +487,10 @@
         <v>6.8222869257472771</v>
       </c>
       <c r="C5" s="2">
-        <v>18.326057789097607</v>
-      </c>
-      <c r="D5" s="2">
         <v>32.370188679775382</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>42856</v>
       </c>
@@ -502,13 +498,10 @@
         <v>6.2337282321643057</v>
       </c>
       <c r="C6" s="2">
-        <v>17.570883172732312</v>
-      </c>
-      <c r="D6" s="2">
         <v>31.480007400831767</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>42887</v>
       </c>
@@ -516,13 +509,10 @@
         <v>5.3295612314756156</v>
       </c>
       <c r="C7" s="2">
-        <v>16.219679224282416</v>
-      </c>
-      <c r="D7" s="2">
         <v>29.470505675109557</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>42917</v>
       </c>
@@ -530,13 +520,10 @@
         <v>5.3576541058927836</v>
       </c>
       <c r="C8" s="2">
-        <v>16.599608986015369</v>
-      </c>
-      <c r="D8" s="2">
         <v>28.904546240002144</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>42948</v>
       </c>
@@ -544,13 +531,10 @@
         <v>5.2527974034305425</v>
       </c>
       <c r="C9" s="2">
-        <v>17.315643587282487</v>
-      </c>
-      <c r="D9" s="2">
         <v>29.190156030416546</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>42979</v>
       </c>
@@ -558,13 +542,10 @@
         <v>4.6231083659127741</v>
       </c>
       <c r="C10" s="2">
-        <v>15.642026864850139</v>
-      </c>
-      <c r="D10" s="2">
         <v>27.725331260347875</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>43009</v>
       </c>
@@ -572,13 +553,10 @@
         <v>5.0249292666792131</v>
       </c>
       <c r="C11" s="2">
-        <v>17.052372910756432</v>
-      </c>
-      <c r="D11" s="2">
         <v>27.34432865047237</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>43040</v>
       </c>
@@ -586,13 +564,10 @@
         <v>5.2858008591911672</v>
       </c>
       <c r="C12" s="2">
-        <v>18.296586296377583</v>
-      </c>
-      <c r="D12" s="2">
         <v>26.864592038576696</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>43070</v>
       </c>
@@ -600,13 +575,10 @@
         <v>5.1690420939105888</v>
       </c>
       <c r="C13" s="2">
-        <v>16.769502328782838</v>
-      </c>
-      <c r="D13" s="2">
         <v>27.70182694272685</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>43101</v>
       </c>
@@ -614,13 +586,10 @@
         <v>5.9920525957915816</v>
       </c>
       <c r="C14" s="2">
-        <v>20.367747928737607</v>
-      </c>
-      <c r="D14" s="2">
         <v>27.740110334655018</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>43132</v>
       </c>
@@ -628,13 +597,10 @@
         <v>6.1950208729644229</v>
       </c>
       <c r="C15" s="2">
-        <v>20.065216783012829</v>
-      </c>
-      <c r="D15" s="2">
         <v>27.25542691694201</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>43160</v>
       </c>
@@ -642,13 +608,10 @@
         <v>6.3990291136274173</v>
       </c>
       <c r="C16" s="2">
-        <v>20.56700038839498</v>
-      </c>
-      <c r="D16" s="2">
         <v>28.447872682324395</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>43191</v>
       </c>
@@ -656,13 +619,10 @@
         <v>6.3110442003427725</v>
       </c>
       <c r="C17" s="2">
-        <v>18.891734798190235</v>
-      </c>
-      <c r="D17" s="2">
         <v>29.166034648146578</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>43221</v>
       </c>
@@ -670,13 +630,10 @@
         <v>5.8040467576270531</v>
       </c>
       <c r="C18" s="2">
-        <v>17.93869792831261</v>
-      </c>
-      <c r="D18" s="2">
         <v>29.660451394803914</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>43252</v>
       </c>
@@ -684,13 +641,10 @@
         <v>5.9340630527935385</v>
       </c>
       <c r="C19" s="2">
-        <v>17.52940581054952</v>
-      </c>
-      <c r="D19" s="2">
         <v>28.125243004822526</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>43282</v>
       </c>
@@ -698,13 +652,10 @@
         <v>5.949829833397744</v>
       </c>
       <c r="C20" s="2">
-        <v>17.616716694428682</v>
-      </c>
-      <c r="D20" s="2">
         <v>28.048600338468429</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>43313</v>
       </c>
@@ -712,13 +663,10 @@
         <v>6.662998299711993</v>
       </c>
       <c r="C21" s="2">
-        <v>19.02143071074822</v>
-      </c>
-      <c r="D21" s="2">
         <v>29.238868295738254</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>43344</v>
       </c>
@@ -726,13 +674,10 @@
         <v>5.8769201447625106</v>
       </c>
       <c r="C22" s="2">
-        <v>18.899716427293445</v>
-      </c>
-      <c r="D22" s="2">
         <v>28.183721026928772</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>43374</v>
       </c>
@@ -740,13 +685,10 @@
         <v>5.6823046735758584</v>
       </c>
       <c r="C23" s="2">
-        <v>19.125714566520404</v>
-      </c>
-      <c r="D23" s="2">
         <v>27.222558982500438</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>43405</v>
       </c>
@@ -754,13 +696,10 @@
         <v>5.6992339009120654</v>
       </c>
       <c r="C24" s="2">
-        <v>17.7643002447067</v>
-      </c>
-      <c r="D24" s="2">
         <v>28.035544521988363</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>43435</v>
       </c>
@@ -768,13 +707,10 @@
         <v>5.3364798992614864</v>
       </c>
       <c r="C25" s="2">
-        <v>16.992928407478836</v>
-      </c>
-      <c r="D25" s="2">
         <v>27.000415982085389</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>43466</v>
       </c>
@@ -782,13 +718,10 @@
         <v>5.9723443357456762</v>
       </c>
       <c r="C26" s="2">
-        <v>20.956422576111553</v>
-      </c>
-      <c r="D26" s="2">
         <v>26.159118485660432</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>43497</v>
       </c>
@@ -796,13 +729,10 @@
         <v>5.6650140059851211</v>
       </c>
       <c r="C27" s="2">
-        <v>20.572091449797803</v>
-      </c>
-      <c r="D27" s="2">
         <v>25.502893039008683</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>43525</v>
       </c>
@@ -810,13 +740,10 @@
         <v>5.298851133192211</v>
       </c>
       <c r="C28" s="2">
-        <v>18.313729576845088</v>
-      </c>
-      <c r="D28" s="2">
         <v>26.649029813354993</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>43556</v>
       </c>
@@ -824,13 +751,10 @@
         <v>6.1618047513440448</v>
       </c>
       <c r="C29" s="2">
-        <v>18.230676279252556</v>
-      </c>
-      <c r="D29" s="2">
         <v>28.809173162482516</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>43586</v>
       </c>
@@ -838,13 +762,10 @@
         <v>5.7976460732715651</v>
       </c>
       <c r="C30" s="2">
-        <v>18.249240843494476</v>
-      </c>
-      <c r="D30" s="2">
         <v>28.585457910946083</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>43617</v>
       </c>
@@ -852,13 +773,10 @@
         <v>5.0241306631838247</v>
       </c>
       <c r="C31" s="2">
-        <v>16.693306673920059</v>
-      </c>
-      <c r="D31" s="2">
         <v>26.68718764087744</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>43647</v>
       </c>
@@ -866,13 +784,10 @@
         <v>4.9454755865762587</v>
       </c>
       <c r="C32" s="2">
-        <v>17.590170290124306</v>
-      </c>
-      <c r="D32" s="2">
         <v>25.593433079129294</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>43678</v>
       </c>
@@ -880,13 +795,10 @@
         <v>5.2129584393609942</v>
       </c>
       <c r="C33" s="2">
-        <v>17.793305506784705</v>
-      </c>
-      <c r="D33" s="2">
         <v>26.924884562533258</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>43709</v>
       </c>
@@ -894,13 +806,10 @@
         <v>4.8047806158569752</v>
       </c>
       <c r="C34" s="2">
-        <v>17.111434795639845</v>
-      </c>
-      <c r="D34" s="2">
         <v>25.990418682866796</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>43739</v>
       </c>
@@ -908,13 +817,10 @@
         <v>4.8233756508521486</v>
       </c>
       <c r="C35" s="2">
-        <v>17.168923639274166</v>
-      </c>
-      <c r="D35" s="2">
         <v>25.144376648804787</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>43770</v>
       </c>
@@ -922,13 +828,10 @@
         <v>4.6894384286104209</v>
       </c>
       <c r="C36" s="2">
-        <v>16.774851208151432</v>
-      </c>
-      <c r="D36" s="2">
         <v>25.218789546596042</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>43800</v>
       </c>
@@ -936,13 +839,10 @@
         <v>4.9055952700909806</v>
       </c>
       <c r="C37" s="2">
-        <v>16.368718243818854</v>
-      </c>
-      <c r="D37" s="2">
         <v>25.578284062076449</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>43831</v>
       </c>
@@ -950,13 +850,10 @@
         <v>5.7141785867858825</v>
       </c>
       <c r="C38" s="2">
-        <v>20.237963817214087</v>
-      </c>
-      <c r="D38" s="2">
         <v>25.979345870821952</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>43862</v>
       </c>
@@ -964,13 +861,10 @@
         <v>5.4084815515862763</v>
       </c>
       <c r="C39" s="2">
-        <v>20.127949925431086</v>
-      </c>
-      <c r="D39" s="2">
         <v>25.165326573888432</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>43891</v>
       </c>
@@ -978,13 +872,10 @@
         <v>5.5573089689030546</v>
       </c>
       <c r="C40" s="2">
-        <v>18.330597592972854</v>
-      </c>
-      <c r="D40" s="2">
         <v>27.458445917167541</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>43922</v>
       </c>
@@ -992,13 +883,10 @@
         <v>5.6259232304546822</v>
       </c>
       <c r="C41" s="2">
-        <v>19.335303043504343</v>
-      </c>
-      <c r="D41" s="2">
         <v>26.013312660213217</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>43952</v>
       </c>
@@ -1006,13 +894,10 @@
         <v>5.7057133030940408</v>
       </c>
       <c r="C42" s="2">
-        <v>19.736911532775647</v>
-      </c>
-      <c r="D42" s="2">
         <v>27.103771708600682</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>43983</v>
       </c>
@@ -1020,13 +905,10 @@
         <v>5.5107770041913433</v>
       </c>
       <c r="C43" s="2">
-        <v>18.148464201557346</v>
-      </c>
-      <c r="D43" s="2">
         <v>27.392504201407405</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>44013</v>
       </c>
@@ -1034,13 +916,10 @@
         <v>5.3208206212709257</v>
       </c>
       <c r="C44" s="2">
-        <v>17.451513104989534</v>
-      </c>
-      <c r="D44" s="2">
         <v>26.574783739867481</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>44044</v>
       </c>
@@ -1048,13 +927,10 @@
         <v>5.9558249198004862</v>
       </c>
       <c r="C45" s="2">
-        <v>18.036143089368633</v>
-      </c>
-      <c r="D45" s="2">
         <v>28.498393253916106</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>44075</v>
       </c>
@@ -1062,13 +938,10 @@
         <v>6.3343192602334852</v>
       </c>
       <c r="C46" s="2">
-        <v>20.717900902013529</v>
-      </c>
-      <c r="D46" s="2">
         <v>28.903288204070105</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>44105</v>
       </c>
@@ -1076,13 +949,10 @@
         <v>6.1095730599162312</v>
       </c>
       <c r="C47" s="2">
-        <v>19.61871605280686</v>
-      </c>
-      <c r="D47" s="2">
         <v>28.228192711896181</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>44136</v>
       </c>
@@ -1090,13 +960,10 @@
         <v>7.2125656733969024</v>
       </c>
       <c r="C48" s="2">
-        <v>21.068378318746241</v>
-      </c>
-      <c r="D48" s="2">
         <v>29.366151390515149</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>44166</v>
       </c>
@@ -1104,13 +971,10 @@
         <v>6.8551038060845073</v>
       </c>
       <c r="C49" s="2">
-        <v>20.678912419265217</v>
-      </c>
-      <c r="D49" s="2">
         <v>28.985226435502767</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>44197</v>
       </c>
@@ -1118,13 +982,10 @@
         <v>10.770924993688777</v>
       </c>
       <c r="C50" s="2">
-        <v>26.880510795798067</v>
-      </c>
-      <c r="D50" s="2">
         <v>34.364240507426786</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>44228</v>
       </c>
@@ -1132,13 +993,10 @@
         <v>9.8521375613625004</v>
       </c>
       <c r="C51" s="2">
-        <v>26.718271026727983</v>
-      </c>
-      <c r="D51" s="2">
         <v>33.099751646972386</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>44256</v>
       </c>
@@ -1146,13 +1004,10 @@
         <v>8.8624520925790691</v>
       </c>
       <c r="C52" s="2">
-        <v>24.258132556961105</v>
-      </c>
-      <c r="D52" s="2">
         <v>33.637338836392232</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>44287</v>
       </c>
@@ -1160,13 +1015,10 @@
         <v>8.9902566668822033</v>
       </c>
       <c r="C53" s="2">
-        <v>24.098724841395203</v>
-      </c>
-      <c r="D53" s="2">
         <v>34.366088154992923</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>44317</v>
       </c>
@@ -1174,13 +1026,10 @@
         <v>10.984338891942766</v>
       </c>
       <c r="C54" s="2">
-        <v>26.59355836040735</v>
-      </c>
-      <c r="D54" s="2">
         <v>36.378162597166266</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>44348</v>
       </c>
@@ -1188,13 +1037,10 @@
         <v>12.803494259241015</v>
       </c>
       <c r="C55" s="2">
-        <v>28.15759232040125</v>
-      </c>
-      <c r="D55" s="2">
         <v>38.21287483243843</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>44378</v>
       </c>
@@ -1202,13 +1048,10 @@
         <v>12.248897070224116</v>
       </c>
       <c r="C56" s="2">
-        <v>27.468840793047612</v>
-      </c>
-      <c r="D56" s="2">
         <v>36.819292745113984</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>44409</v>
       </c>
@@ -1216,13 +1059,10 @@
         <v>12.54193733243541</v>
       </c>
       <c r="C57" s="2">
-        <v>28.526732395193456</v>
-      </c>
-      <c r="D57" s="2">
         <v>35.576575761735846</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>44440</v>
       </c>
@@ -1230,13 +1070,10 @@
         <v>12.446819819990667</v>
       </c>
       <c r="C58" s="2">
-        <v>28.160213837845383</v>
-      </c>
-      <c r="D58" s="2">
         <v>37.182770248999319</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>44470</v>
       </c>
@@ -1244,13 +1081,10 @@
         <v>12.956912783153282</v>
       </c>
       <c r="C59" s="2">
-        <v>30.604348440415709</v>
-      </c>
-      <c r="D59" s="2">
         <v>35.442007116689176</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>44501</v>
       </c>
@@ -1258,13 +1092,10 @@
         <v>11.266483849410809</v>
       </c>
       <c r="C60" s="2">
-        <v>27.941309396084812</v>
-      </c>
-      <c r="D60" s="2">
         <v>35.391166775975819</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>44531</v>
       </c>
@@ -1272,13 +1103,10 @@
         <v>9.8327530137604082</v>
       </c>
       <c r="C61" s="2">
-        <v>25.868320049355905</v>
-      </c>
-      <c r="D61" s="2">
         <v>33.851465263584629</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" s="1">
         <v>44562</v>
       </c>
@@ -1286,13 +1114,10 @@
         <v>10.2682722633068</v>
       </c>
       <c r="C62" s="2">
-        <v>26.971551282391673</v>
-      </c>
-      <c r="D62" s="2">
         <v>34.966510103444996</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>44593</v>
       </c>
@@ -1300,13 +1125,10 @@
         <v>8.2115079979299175</v>
       </c>
       <c r="C63" s="2">
-        <v>24.50074937893023</v>
-      </c>
-      <c r="D63" s="2">
         <v>32.641133365099435</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>44621</v>
       </c>
@@ -1314,13 +1136,10 @@
         <v>10.641169104631601</v>
       </c>
       <c r="C64" s="2">
-        <v>26.610430934485244</v>
-      </c>
-      <c r="D64" s="2">
         <v>35.189421580935836</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>44652</v>
       </c>
@@ -1328,13 +1147,10 @@
         <v>11.362650966603779</v>
       </c>
       <c r="C65" s="2">
-        <v>26.351639424251907</v>
-      </c>
-      <c r="D65" s="2">
         <v>37.477118893119609</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>44682</v>
       </c>
@@ -1342,13 +1158,10 @@
         <v>12.121543724511282</v>
       </c>
       <c r="C66" s="2">
-        <v>28.476578087540759</v>
-      </c>
-      <c r="D66" s="2">
         <v>37.111541648332746</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>44713</v>
       </c>
@@ -1356,13 +1169,10 @@
         <v>12.538175034813063</v>
       </c>
       <c r="C67" s="2">
-        <v>27.178871921202912</v>
-      </c>
-      <c r="D67" s="2">
         <v>36.921837080864705</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>44743</v>
       </c>
@@ -1370,13 +1180,10 @@
         <v>11.2192263322596</v>
       </c>
       <c r="C68" s="2">
-        <v>25.861810619459924</v>
-      </c>
-      <c r="D68" s="2">
         <v>36.441305561010154</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>44774</v>
       </c>
@@ -1384,13 +1191,10 @@
         <v>9.7637122078254883</v>
       </c>
       <c r="C69" s="2">
-        <v>25.370916786263955</v>
-      </c>
-      <c r="D69" s="2">
         <v>33.958546089070182</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>44805</v>
       </c>
@@ -1398,13 +1202,10 @@
         <v>9.0378919986691599</v>
       </c>
       <c r="C70" s="2">
-        <v>23.828414897242681</v>
-      </c>
-      <c r="D70" s="2">
         <v>33.055274195868975</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>44835</v>
       </c>
@@ -1412,13 +1213,10 @@
         <v>8.6190709587249028</v>
       </c>
       <c r="C71" s="2">
-        <v>22.608850914860387</v>
-      </c>
-      <c r="D71" s="2">
         <v>32.449506591589234</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>44866</v>
       </c>
@@ -1426,13 +1224,10 @@
         <v>8.7544841694334146</v>
       </c>
       <c r="C72" s="2">
-        <v>21.883562962077129</v>
-      </c>
-      <c r="D72" s="2">
         <v>33.148027750967344</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>44896</v>
       </c>
@@ -1440,13 +1235,10 @@
         <v>8.2324520655710831</v>
       </c>
       <c r="C73" s="2">
-        <v>21.377177844843786</v>
-      </c>
-      <c r="D73" s="2">
         <v>31.75674002829658</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>44927</v>
       </c>
@@ -1454,13 +1246,10 @@
         <v>8.8708633177229608</v>
       </c>
       <c r="C74" s="2">
-        <v>26.175358203785471</v>
-      </c>
-      <c r="D74" s="2">
         <v>31.363168168545091</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>44958</v>
       </c>
@@ -1468,13 +1257,10 @@
         <v>6.9363702695081981</v>
       </c>
       <c r="C75" s="2">
-        <v>22.272776406575439</v>
-      </c>
-      <c r="D75" s="2">
         <v>29.322705304539443</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>44986</v>
       </c>
@@ -1482,13 +1268,10 @@
         <v>7.3666389529473824</v>
       </c>
       <c r="C76" s="2">
-        <v>21.843444820099926</v>
-      </c>
-      <c r="D76" s="2">
         <v>31.987864947444145</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" s="1">
         <v>45017</v>
       </c>
@@ -1496,13 +1279,10 @@
         <v>8.0673708771268178</v>
       </c>
       <c r="C77" s="2">
-        <v>22.075340714872944</v>
-      </c>
-      <c r="D77" s="2">
         <v>33.317801620348618</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>45047</v>
       </c>
@@ -1510,13 +1290,10 @@
         <v>7.1841029872307534</v>
       </c>
       <c r="C78" s="2">
-        <v>22.187425201071697</v>
-      </c>
-      <c r="D78" s="2">
         <v>31.391351481872327</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" s="1">
         <v>45078</v>
       </c>
@@ -1524,13 +1301,10 @@
         <v>7.1575268675491346</v>
       </c>
       <c r="C79" s="2">
-        <v>22.154061943327935</v>
-      </c>
-      <c r="D79" s="2">
         <v>30.801694859331924</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>45108</v>
       </c>
@@ -1538,13 +1312,10 @@
         <v>6.7906415423813282</v>
       </c>
       <c r="C80" s="2">
-        <v>21.531430547668634</v>
-      </c>
-      <c r="D80" s="2">
         <v>29.116735638132504</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>45139</v>
       </c>
@@ -1552,13 +1323,10 @@
         <v>6.6316803529969972</v>
       </c>
       <c r="C81" s="2">
-        <v>20.425277343153066</v>
-      </c>
-      <c r="D81" s="2">
         <v>29.120719364931549</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>45170</v>
       </c>
@@ -1566,13 +1334,10 @@
         <v>6.5706655527947575</v>
       </c>
       <c r="C82" s="2">
-        <v>21.741004121815354</v>
-      </c>
-      <c r="D82" s="2">
         <v>29.787720343289557</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>45200</v>
       </c>
@@ -1580,13 +1345,10 @@
         <v>6.3408455874421525</v>
       </c>
       <c r="C83" s="2">
-        <v>20.570422561865207</v>
-      </c>
-      <c r="D83" s="2">
         <v>27.729563786676852</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>45231</v>
       </c>
@@ -1594,13 +1356,10 @@
         <v>6.6960367893902717</v>
       </c>
       <c r="C84" s="2">
-        <v>20.989080191775702</v>
-      </c>
-      <c r="D84" s="2">
         <v>29.043098491692341</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>45261</v>
       </c>
@@ -1608,13 +1367,10 @@
         <v>7.1809551173220036</v>
       </c>
       <c r="C85" s="2">
-        <v>20.965424397297358</v>
-      </c>
-      <c r="D85" s="2">
         <v>30.190208594941456</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>45292</v>
       </c>
@@ -1622,13 +1378,10 @@
         <v>6.7619315236835069</v>
       </c>
       <c r="C86" s="2">
-        <v>21.424658377658705</v>
-      </c>
-      <c r="D86" s="2">
         <v>28.741004093318438</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" s="1">
         <v>45323</v>
       </c>
@@ -1636,13 +1389,10 @@
         <v>6.7255576156382935</v>
       </c>
       <c r="C87" s="2">
-        <v>22.383607884778314</v>
-      </c>
-      <c r="D87" s="2">
         <v>27.084021176712753</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" s="1">
         <v>45352</v>
       </c>
@@ -1650,13 +1400,10 @@
         <v>7.5300841087817982</v>
       </c>
       <c r="C88" s="2">
-        <v>22.362394566025081</v>
-      </c>
-      <c r="D88" s="2">
         <v>30.357813950521621</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" s="1">
         <v>45383</v>
       </c>
@@ -1664,13 +1411,10 @@
         <v>8.9550405401635302</v>
       </c>
       <c r="C89" s="2">
-        <v>23.115239151841802</v>
-      </c>
-      <c r="D89" s="2">
         <v>32.665214088343099</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" s="1">
         <v>45413</v>
       </c>
@@ -1678,13 +1422,10 @@
         <v>8.8788596741805073</v>
       </c>
       <c r="C90" s="2">
-        <v>24.265038788724027</v>
-      </c>
-      <c r="D90" s="2">
         <v>31.840135110478993</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" s="1">
         <v>45444</v>
       </c>
@@ -1692,13 +1433,12 @@
         <v>8.5302511931934326</v>
       </c>
       <c r="C91" s="2">
-        <v>22.772885620438409</v>
-      </c>
-      <c r="D91" s="2">
         <v>32.283905231323828</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>